--- a/src/main/resources/doc/AWS_Cloudwatch.xlsx
+++ b/src/main/resources/doc/AWS_Cloudwatch.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
-    <sheet name="agent install手順" sheetId="1" r:id="rId1"/>
-    <sheet name="agent install別紙" sheetId="2" r:id="rId2"/>
+    <sheet name="Linux" sheetId="3" r:id="rId1"/>
+    <sheet name="agent install手順" sheetId="1" r:id="rId2"/>
+    <sheet name="agent install別紙" sheetId="2" r:id="rId3"/>
+    <sheet name="Windows" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="211">
   <si>
     <t>0.前提</t>
     <rPh sb="2" eb="4">
@@ -65,10 +67,6 @@
   </si>
   <si>
     <t>ACCESS KEY:  your access key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DEFAULT REGION:  ap-northeast-1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -578,12 +576,377 @@
     <t>起動ログ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://docs.aws.amazon.com/ja_jp/AWSEC2/latest/UserGuide/mon-scripts.html</t>
+  </si>
+  <si>
+    <t>参照：</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なパッケージをインストールする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニタリングスクリプトのダウンロード、インストール、設定を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curl https://aws-cloudwatch.s3.amazonaws.com/downloads/CloudWatchMonitoringScripts-1.2.2.zip -O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスに IAM ロール (インスタンスプロファイル) を関連付けている場合は、次の操作を実行するアクセス権限を持っていることを検証してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・cloudwatch:PutMetricData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・cloudwatch:GetMetricStatistics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・cloudwatch:ListMetrics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ec2:DescribeTags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch にデータを投入しないで簡単なテストランを行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./mon-put-instance-data.pl --mem-util --verify --verbose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unzip CloudWatchMonitoringScripts-1.2.2.zip &amp;&amp; \
+rm CloudWatchMonitoringScripts-1.2.2.zip &amp;&amp; \
+cd aws-scripts-mon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./mon-put-instance-data.pl --mem-used-incl-cache-buff --mem-util --mem-used --mem-avail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch にレポートするメトリックスの cron スケジュールを設定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crontab を編集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">crontab -e </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1分ごとにメモリの使用状況を CloudWatch にレポートするには、以下のコマンドを追加します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo su</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yum install -y perl-Switch perl-DateTime perl-Sys-Syslog perl-LWP-Protocol-https perl-Digest-SHA.x86_64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のコマンドを実行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用可能なメモリメトリクスをすべて収集し、CloudWatch に送信して、使用されているキャッシュとバッファメモリをカウントする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*/1 * * * * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/home/ec2-user/aws-scripts-mon/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mon-put-instance-data.pl --mem-used-incl-cache-buff --mem-util --mem-used --mem-avail</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニタリングスクリプトを保存するフォルダに移動し、次のコマンドを実行してモニタリングスクリプトをダウンロードする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※モニタリングスクリプトを保存するフォルダパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去 12 時間の利用統計情報を取得するには、次のコマンドを実行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./mon-get-instance-stats.pl --recent-hours=12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2 Linux インスタンスのメモリとディスクのメトリクスのモニタリング</t>
+  </si>
+  <si>
+    <t>CloudWatch エージェントを使用して Amazon EC2 インスタンスとオンプレミスサーバーからメトリクスとログを収集する</t>
+  </si>
+  <si>
+    <t>CloudWatch エージェントをダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/amazoncloudwatch-agent/windows/amd64/latest/amazon-cloudwatch-agent.msi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msiexec /i amazon-cloudwatch-agent.msi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmd（またはPowershell）でパッケージがあるディレクトリに移動し、以下を入力します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatchAgent用のroleをec2にattach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd C:\Program Files\Amazon\AmazonCloudWatchAgent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmdで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amazon-cloudwatch-agent-config-wizard.exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Do you want to add ec2 dimensions (ImageId, InstanceId, InstanceType, AutoScalingGroupName) into all of your metrics if the info is available?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Do you have any existing CloudWatch Log Agent configuration file to import for migration?</t>
+  </si>
+  <si>
+    <t>Current config as follows:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "Memory": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        "% Committed Bytes In Use"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "Paging File": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        "% Usage"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                "metrics_collection_interval": 60,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                "resources": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        "*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                ]</t>
+  </si>
+  <si>
+    <t>Do you want to monitor any customized log files?</t>
+  </si>
+  <si>
+    <t>Do you want to monitor any Windows event log?</t>
+  </si>
+  <si>
+    <t>Saved config file to config.json successfully.</t>
+  </si>
+  <si>
+    <t>Please check the above content of the config.</t>
+  </si>
+  <si>
+    <t>The config file is also located at config.json.</t>
+  </si>
+  <si>
+    <t>Edit it manually if needed.</t>
+  </si>
+  <si>
+    <t>Please press Enter to exit...</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/jp/cli/?nc1=h_ls</t>
+  </si>
+  <si>
+    <t>DEFAULT REGION:  ap-northeast-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>sudo /opt/aws/amazon-cloudwatch-agent/bin/amazon-cloudwatch-agent-ctl -a fetch-config -m ec2 -c file:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>/opt/aws/amazon-cloudwatch-agent/bin/config.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> -s</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agentの初期起動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd "C:\Program Files\Amazon\AmazonCloudWatchAgent"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Powershellで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./amazon-cloudwatch-agent-ctl.ps1 -a fetch-config -m ec2 -c file:"C:\Program Files\Amazon\AmazonCloudWatchAgent\config.json" -s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config.jsonを編集</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Program Files\Amazon\AmazonCloudWatchAgent\config.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/zh_cn/AmazonCloudWatch/latest/monitoring/metrics-collected-by-CloudWatch-agent.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ec2を起動すると、CWAgentも自動的起動できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./amazon-cloudwatch-agent-ctl.ps1 -m ec2 -a stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./amazon-cloudwatch-agent-ctl.ps1 -m ec2 -a start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CLI インストール（必要かどうか？）</t>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +1004,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE47911"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -663,12 +1041,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -696,15 +1084,96 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225179</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="664882" y="4639235"/>
+          <a:ext cx="6134415" cy="1625684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205009</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="6716059"/>
+          <a:ext cx="6121715" cy="825542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>80564</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>66410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -736,13 +1205,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -800,7 +1269,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1130,6 +1599,1315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14062</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>343647</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>223651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671474" y="16002000"/>
+          <a:ext cx="9533349" cy="5064592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642471</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>612589</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642471" y="1636060"/>
+          <a:ext cx="7201647" cy="2667051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475833</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>62285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="5117818"/>
+          <a:ext cx="9664656" cy="5134349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>395943</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>4435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="10660528"/>
+          <a:ext cx="9584766" cy="5091907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231588</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>500529</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4176059" y="17174882"/>
+          <a:ext cx="2241176" cy="268942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>343647</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2973294" y="13058588"/>
+          <a:ext cx="5027706" cy="246530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801471" y="6200588"/>
+          <a:ext cx="5236882" cy="1232647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12452</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect b="5515"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="669864" y="21336000"/>
+          <a:ext cx="9572312" cy="5087471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="23009412"/>
+          <a:ext cx="1449294" cy="156882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5271</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>228788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662683" y="26647588"/>
+          <a:ext cx="9557082" cy="5077200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1561353" y="28261235"/>
+          <a:ext cx="2495176" cy="321236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373529</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>19872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="33117119"/>
+          <a:ext cx="5632823" cy="3262106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>639284</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486911</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>208463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639284" y="909918"/>
+          <a:ext cx="4470427" cy="3413345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>218233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="4572000"/>
+          <a:ext cx="4470399" cy="3418633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>9870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="8229600"/>
+          <a:ext cx="4500283" cy="3438870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>9870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="11887200"/>
+          <a:ext cx="4500283" cy="3438870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640159</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>59140</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="672353" y="49646541"/>
+          <a:ext cx="6018982" cy="2389964"/>
+          <a:chOff x="657412" y="17369118"/>
+          <a:chExt cx="5899453" cy="2375022"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="図 19"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="657412" y="17369118"/>
+            <a:ext cx="5899453" cy="2375022"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2637118" y="18273059"/>
+            <a:ext cx="1553882" cy="127000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2950881" y="18437412"/>
+            <a:ext cx="3077883" cy="149412"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7537</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>97242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="92403706"/>
+          <a:ext cx="8553890" cy="2413124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>405197</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>105976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="91708941"/>
+          <a:ext cx="5664491" cy="5200917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>567765</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2442882" y="93681176"/>
+          <a:ext cx="3384177" cy="1494118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417898</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>31954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7888941" y="91708941"/>
+          <a:ext cx="5677192" cy="3968954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530412</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6387353" y="94525353"/>
+          <a:ext cx="1374588" cy="7470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168842</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>85238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="97550941"/>
+          <a:ext cx="7385430" cy="1422473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>164732</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>49930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8576235" y="71359058"/>
+          <a:ext cx="7366379" cy="4883401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>410882</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1725706" y="71456176"/>
+          <a:ext cx="7485529" cy="799353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1426,1027 +3204,1257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I249"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C54" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C60" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C67" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C72" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C77" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C82" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C87" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C86" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C94" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C101" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C100" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C106" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C107" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C111" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C114" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C113" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C116" t="s">
-        <v>56</v>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C119" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C118" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C119" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B123" t="s">
-        <v>93</v>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C122" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C126" t="s">
-        <v>62</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C127" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C130" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C129" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C131" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C130" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C132" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C131" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C133" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C132" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C133" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C135" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C134" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C136" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C135" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C137" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C136" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C138" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C137" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C139" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C138" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C140" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C139" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C141" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C140" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C142" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C141" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C143" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C142" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C144" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C143" t="s">
+    <row r="145" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C145" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C144" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="I144" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C145" t="s">
-        <v>81</v>
+      <c r="E145" s="1"/>
+      <c r="I145" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C147" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C148" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C149" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C150" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C151" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C152" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C153" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C155" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>111</v>
+      <c r="C155" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C156" t="s">
-        <v>81</v>
+      <c r="C156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C157" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C158" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C159" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C160" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C162" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B165" t="s">
-        <v>102</v>
+      <c r="A165" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B168" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B171" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>124</v>
+      </c>
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>125</v>
-      </c>
-      <c r="B172" s="4"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B173" s="4"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B174" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B178" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B179" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B182" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C184" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C185" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C186" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C187" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C188" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C189" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C190" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C191" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C192" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C193" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C194" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C195" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="196" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C196" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C197" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C198" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C199" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C200" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C201" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C202" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C203" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C204" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C203" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C204" t="s">
-        <v>81</v>
+      <c r="I204" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="205" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C205" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C206" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C207" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>121</v>
+      <c r="C207" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C208" s="2" t="s">
-        <v>79</v>
+      <c r="C208" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C209" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C210" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C211" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C212" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C213" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C214" t="s">
-        <v>83</v>
+      <c r="C214" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C215" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C216" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C217" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C218" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C219" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C220" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C221" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="222" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C222" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="223" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C223" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="222" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C222" s="1" t="s">
+      <c r="I223" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="223" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C223" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C224" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C225" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C226" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C227" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C228" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B230" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
-        <v>127</v>
-      </c>
-      <c r="D246" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C229" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B247" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D247" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B248" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D248" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B249" t="s">
+        <v>128</v>
+      </c>
+      <c r="D249" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B14" location="'agent install別紙'!A1" display="AmazonEC2CloudWatchAgent"/>
-    <hyperlink ref="B178" location="'agent install別紙'!A78" display="Metrics"/>
+    <hyperlink ref="B15" location="'agent install別紙'!A1" display="AmazonEC2CloudWatchAgent"/>
+    <hyperlink ref="B179" location="'agent install別紙'!A78" display="Metrics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2454,27 +4462,1030 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N453"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B141" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C211" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B228" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B257" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B265" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B266" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B267">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B269" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B270" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B274" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B277" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B278" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B281" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B282" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B284" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B286" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B287" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B288" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B291" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B292" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B293" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B296" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B298" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B301" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B302" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B303" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B304" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B305" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B306" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B308" t="s">
+        <v>46</v>
+      </c>
+      <c r="N308" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="309" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B309" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="310" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B310" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B311" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="312" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B312" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B315" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="316" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B316" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="317" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B317" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="318" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B318" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="319" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B319" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="320" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B320" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B321" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B322" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B323" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B324" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B325" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B326" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B327" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B328" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B329" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B330" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B331" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B332" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B333" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B334" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B335" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B336" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B337" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B338" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B339" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B340" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B341" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B342" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B343" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B344" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B347" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B348" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B349" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B350" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B352" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B353" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B354" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B357" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B358" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B359" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B360" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B361" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B362" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B363" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B364" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B365" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B366" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B367" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B368" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B369" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B370" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B371" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B372" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B373" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B374" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B375" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B376" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B377" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B378" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B379" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B380" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B381" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B382" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B383" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B384" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B385" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B386" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B387" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B388" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B389" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B390" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B391" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B393" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>6</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B396" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="408" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K408" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421" t="s">
+        <v>206</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <v>7</v>
+      </c>
+      <c r="B430" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B431" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B432" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B433" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A447" s="6">
+        <v>8</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C447" s="6"/>
+      <c r="D447" s="6"/>
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
+      <c r="I447" s="6"/>
+      <c r="J447" s="6"/>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A448" s="6"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
+      <c r="I448" s="6"/>
+      <c r="J448" s="6"/>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A449" s="6"/>
+      <c r="B449" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C449" s="6"/>
+      <c r="D449" s="6"/>
+      <c r="E449" s="6"/>
+      <c r="F449" s="6"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
+      <c r="I449" s="6"/>
+      <c r="J449" s="6"/>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A450" s="6"/>
+      <c r="B450" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C450" s="6"/>
+      <c r="D450" s="6"/>
+      <c r="E450" s="6"/>
+      <c r="F450" s="6"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
+      <c r="I450" s="6"/>
+      <c r="J450" s="6"/>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A451" s="6"/>
+      <c r="B451" s="6"/>
+      <c r="C451" s="6"/>
+      <c r="D451" s="6"/>
+      <c r="E451" s="6"/>
+      <c r="F451" s="6"/>
+      <c r="G451" s="6"/>
+      <c r="H451" s="6"/>
+      <c r="I451" s="6"/>
+      <c r="J451" s="6"/>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A452" s="6"/>
+      <c r="B452" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C452" s="6"/>
+      <c r="D452" s="6"/>
+      <c r="E452" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F452" s="6"/>
+      <c r="G452" s="6"/>
+      <c r="H452" s="6"/>
+      <c r="I452" s="6"/>
+      <c r="J452" s="6"/>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A453" s="6"/>
+      <c r="B453" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C453" s="6"/>
+      <c r="D453" s="6"/>
+      <c r="E453" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F453" s="6"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="6"/>
+      <c r="I453" s="6"/>
+      <c r="J453" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B141" r:id="rId2"/>
+    <hyperlink ref="B421" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>